--- a/2015-2016/PRE_PRO/pasantes/diana/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_8_12_junio .xlsx
+++ b/2015-2016/PRE_PRO/pasantes/diana/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_8_12_junio .xlsx
@@ -22,18 +22,22 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>UNIVERSIDAD TÉCNICA DE MACHALA</t>
   </si>
@@ -195,9 +199,6 @@
   </si>
   <si>
     <t>TUTOR DE PRÁCTICAS PRE-PROFESIONALES Y PASANTÍAS</t>
-  </si>
-  <si>
-    <t>                                                                                                  UNIDAD ACADÉMICA DE CIENCIAS EMPRESARIALES</t>
   </si>
   <si>
     <t>PRÁCTICAS PRE-PROFESIONALES Y PASANTÍAS</t>
@@ -828,7 +829,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -898,15 +899,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1411200</xdr:colOff>
+      <xdr:colOff>1465200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2018880</xdr:colOff>
+      <xdr:colOff>2072160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -921,8 +922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7152840" y="1440"/>
-          <a:ext cx="607680" cy="531360"/>
+          <a:off x="7206840" y="1440"/>
+          <a:ext cx="606960" cy="530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,15 +943,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>709200</xdr:colOff>
+      <xdr:colOff>763200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>240840</xdr:rowOff>
+      <xdr:rowOff>222840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1470600</xdr:colOff>
+      <xdr:colOff>1523880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -965,8 +966,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4100040" y="240840"/>
-          <a:ext cx="761400" cy="822600"/>
+          <a:off x="4154040" y="222840"/>
+          <a:ext cx="760680" cy="821880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -986,15 +987,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>673560</xdr:colOff>
+      <xdr:colOff>727560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>265320</xdr:rowOff>
+      <xdr:rowOff>247320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1148040</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>1201320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>235440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1009,8 +1010,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2985480" y="265320"/>
-          <a:ext cx="474480" cy="760320"/>
+          <a:off x="3039480" y="247320"/>
+          <a:ext cx="473760" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1030,15 +1031,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>477720</xdr:colOff>
+      <xdr:colOff>531720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>974520</xdr:colOff>
+      <xdr:colOff>1027800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,8 +1054,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3513600" y="117000"/>
-          <a:ext cx="496800" cy="765000"/>
+          <a:off x="3567600" y="99000"/>
+          <a:ext cx="496080" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1074,15 +1075,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1246680</xdr:colOff>
+      <xdr:colOff>1300680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>250200</xdr:rowOff>
+      <xdr:rowOff>232200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2089800</xdr:colOff>
+      <xdr:colOff>2143080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>250200</xdr:rowOff>
+      <xdr:rowOff>231480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1097,8 +1098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4600080" y="250200"/>
-          <a:ext cx="843120" cy="828360"/>
+          <a:off x="4654080" y="232200"/>
+          <a:ext cx="842400" cy="827640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,7 +1122,7 @@
   <dimension ref="A4:H29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="F12 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1373,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A1:O65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="1" sqref="F12 I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1742,7 +1743,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1796,7 +1797,7 @@
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -1812,7 +1813,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1836,7 +1837,7 @@
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -1858,12 +1859,12 @@
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -1884,32 +1885,32 @@
     </row>
     <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="E11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="F11" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="G11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="H11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>56</v>
-      </c>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="100.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="n">
         <v>42167</v>
       </c>
@@ -1920,10 +1921,10 @@
         <v>35</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>40</v>
@@ -1975,7 +1976,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2021,8 +2022,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="F12 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2084,7 +2085,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -2098,7 +2099,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -2126,7 +2127,7 @@
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -2158,14 +2159,14 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="44" t="s">
         <v>62</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>63</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -2184,10 +2185,10 @@
     </row>
     <row r="11" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>25</v>
@@ -2196,19 +2197,19 @@
         <v>26</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="H11" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="I11" s="49" t="s">
         <v>68</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>69</v>
       </c>
       <c r="J11" s="49" t="s">
         <v>34</v>
@@ -2362,7 +2363,7 @@
     </row>
     <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -2411,7 +2412,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="F12 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2478,7 +2479,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2494,7 +2495,7 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2510,7 +2511,7 @@
     </row>
     <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -2560,22 +2561,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="F9" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="G9" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="54" t="s">
         <v>76</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="80.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
